--- a/medicine/Enfance/Vladislav_Krapivine/Vladislav_Krapivine.xlsx
+++ b/medicine/Enfance/Vladislav_Krapivine/Vladislav_Krapivine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vladislav Petrovitch Krapivine (en russe : Владислав Петрович Крапивин), né le 14 octobre 1938 à Tioumen en URSS et mort le 1er septembre 2020 à Iekaterinbourg (Russie)[1], est un auteur soviétique et russe de littérature d'enfance et de jeunesse et de science-fiction.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vladislav Petrovitch Krapivine (en russe : Владислав Петрович Крапивин), né le 14 octobre 1938 à Tioumen en URSS et mort le 1er septembre 2020 à Iekaterinbourg (Russie), est un auteur soviétique et russe de littérature d'enfance et de jeunesse et de science-fiction.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Vladislav Petrovitch Krapivine est né à Tioumen le 14 octobre 1938. Il est diplômé en journalisme de l'université d'État de l'Oural. Au cours de ses études, il a commencé à travailler pour le journal Sverdlovsk Soir, suivi de plusieurs années dans le périodique L'Éclaireur de l'Oural. Vladislav Krapivine est écrivain à plein temps à partir de 1965. Son premier livre, Le Voyage d'Orion, a été imprimé par la maison d'édition Sverdlovsk en 1962. Au cours de sa carrière littéraire, il est devenu l'auteur de plus de 200 publications dont beaucoup qui ont été traduits.
 En 1961, Vladislav Krapivine a fondé un groupe de jeunes appelé « Caravelle », dont les activités principales sont le journalisme, l'escrime, la voile et tout ce qui est maritime. « Caravelle » existe à ce jour, dirigé par ses anciens diplômés.
@@ -543,7 +557,9 @@
           <t>Œuvres traduites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Ailes et les Voiles (Летящие Сказки) :
 Les Enfants du flamant bleu (Дети Синего Фламинго, 1980), Delahaye, 2004.
